--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H2">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>9.655987489354999</v>
+        <v>7.646569350217779</v>
       </c>
       <c r="R2">
-        <v>86.90388740419499</v>
+        <v>68.81912415196</v>
       </c>
       <c r="S2">
-        <v>0.001023754402006808</v>
+        <v>0.0003656430698041141</v>
       </c>
       <c r="T2">
-        <v>0.001023754402006808</v>
+        <v>0.0003656430698041141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H3">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>3.288172350006666</v>
+        <v>3.156723464249334</v>
       </c>
       <c r="R3">
-        <v>29.59355115005999</v>
+        <v>28.410511178244</v>
       </c>
       <c r="S3">
-        <v>0.0003486210935533489</v>
+        <v>0.000150947961775555</v>
       </c>
       <c r="T3">
-        <v>0.000348621093553349</v>
+        <v>0.000150947961775555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H4">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I4">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J4">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>560.3962503518654</v>
+        <v>2098.151860332439</v>
       </c>
       <c r="R4">
-        <v>5043.566253166789</v>
+        <v>18883.36674299195</v>
       </c>
       <c r="S4">
-        <v>0.05941475471030815</v>
+        <v>0.1003292655817365</v>
       </c>
       <c r="T4">
-        <v>0.05941475471030816</v>
+        <v>0.1003292655817365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H5">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I5">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J5">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>10.28893285003722</v>
+        <v>13.22173500369367</v>
       </c>
       <c r="R5">
-        <v>92.600395650335</v>
+        <v>118.995615033243</v>
       </c>
       <c r="S5">
-        <v>0.001090861013313271</v>
+        <v>0.0006322359156723499</v>
       </c>
       <c r="T5">
-        <v>0.001090861013313271</v>
+        <v>0.0006322359156723498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H6">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I6">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J6">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>1283.290422167644</v>
+        <v>1474.844505205429</v>
       </c>
       <c r="R6">
-        <v>11549.6137995088</v>
+        <v>13273.60054684886</v>
       </c>
       <c r="S6">
-        <v>0.13605798683932</v>
+        <v>0.07052400202865934</v>
       </c>
       <c r="T6">
-        <v>0.13605798683932</v>
+        <v>0.07052400202865933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>186.642341</v>
       </c>
       <c r="I7">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J7">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>25.123738879669</v>
+        <v>20.72393602312444</v>
       </c>
       <c r="R7">
-        <v>226.113649917021</v>
+        <v>186.51542420812</v>
       </c>
       <c r="S7">
-        <v>0.002663688027898305</v>
+        <v>0.0009909755916492763</v>
       </c>
       <c r="T7">
-        <v>0.002663688027898306</v>
+        <v>0.0009909755916492763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>186.642341</v>
       </c>
       <c r="I8">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J8">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>8.555436054985332</v>
       </c>
       <c r="R8">
-        <v>76.99892449486799</v>
+        <v>76.99892449486801</v>
       </c>
       <c r="S8">
-        <v>0.0009070709062159374</v>
+        <v>0.0004091031885519409</v>
       </c>
       <c r="T8">
-        <v>0.0009070709062159376</v>
+        <v>0.0004091031885519409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>186.642341</v>
       </c>
       <c r="I9">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J9">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>1458.084849271729</v>
+        <v>5686.467084626729</v>
       </c>
       <c r="R9">
-        <v>13122.76364344556</v>
+        <v>51178.20376164056</v>
       </c>
       <c r="S9">
-        <v>0.1545901736706865</v>
+        <v>0.2719150492114154</v>
       </c>
       <c r="T9">
-        <v>0.1545901736706866</v>
+        <v>0.2719150492114154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>186.642341</v>
       </c>
       <c r="I10">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J10">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>26.77058794450144</v>
+        <v>35.83389854738567</v>
       </c>
       <c r="R10">
-        <v>240.935291500513</v>
+        <v>322.505086926471</v>
       </c>
       <c r="S10">
-        <v>0.002838291503868181</v>
+        <v>0.001713502626840377</v>
       </c>
       <c r="T10">
-        <v>0.002838291503868181</v>
+        <v>0.001713502626840377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>186.642341</v>
       </c>
       <c r="I11">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J11">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>3338.970095897849</v>
+        <v>3997.162880509734</v>
       </c>
       <c r="R11">
-        <v>30050.73086308064</v>
+        <v>35974.46592458761</v>
       </c>
       <c r="S11">
-        <v>0.3540068105528222</v>
+        <v>0.1911360296621137</v>
       </c>
       <c r="T11">
-        <v>0.3540068105528223</v>
+        <v>0.1911360296621137</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H12">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I12">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J12">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>0.649664628181</v>
+        <v>2.592583954395556</v>
       </c>
       <c r="R12">
-        <v>5.846981653629</v>
+        <v>23.33325558956</v>
       </c>
       <c r="S12">
-        <v>6.887923411889612E-05</v>
+        <v>0.000123971981733623</v>
       </c>
       <c r="T12">
-        <v>6.887923411889613E-05</v>
+        <v>0.0001239719817336231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H13">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I13">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J13">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>0.2212315694813333</v>
+        <v>1.070293124542667</v>
       </c>
       <c r="R13">
-        <v>1.991084125332</v>
+        <v>9.632638120884002</v>
       </c>
       <c r="S13">
-        <v>2.345558063005723E-05</v>
+        <v>5.117919497282423E-05</v>
       </c>
       <c r="T13">
-        <v>2.345558063005723E-05</v>
+        <v>5.117919497282424E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H14">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I14">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J14">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>37.70402789152644</v>
+        <v>711.3823988045229</v>
       </c>
       <c r="R14">
-        <v>339.336251023738</v>
+        <v>6402.441589240706</v>
       </c>
       <c r="S14">
-        <v>0.003997484935630964</v>
+        <v>0.03401682927208293</v>
       </c>
       <c r="T14">
-        <v>0.003997484935630965</v>
+        <v>0.03401682927208293</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H15">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I15">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J15">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>0.6922498337707778</v>
+        <v>4.482854525980335</v>
       </c>
       <c r="R15">
-        <v>6.230248503937</v>
+        <v>40.34569073382301</v>
       </c>
       <c r="S15">
-        <v>7.3394234964844E-05</v>
+        <v>0.0002143607957100438</v>
       </c>
       <c r="T15">
-        <v>7.339423496484402E-05</v>
+        <v>0.0002143607957100438</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H16">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I16">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J16">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>86.34108069059556</v>
+        <v>500.0488486140715</v>
       </c>
       <c r="R16">
-        <v>777.0697262153601</v>
+        <v>4500.439637526643</v>
       </c>
       <c r="S16">
-        <v>0.009154119299395098</v>
+        <v>0.02391129769248146</v>
       </c>
       <c r="T16">
-        <v>0.009154119299395101</v>
+        <v>0.02391129769248146</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H17">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I17">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J17">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>10.518074811384</v>
+        <v>10.13982178489778</v>
       </c>
       <c r="R17">
-        <v>94.662673302456</v>
+        <v>91.25839606407999</v>
       </c>
       <c r="S17">
-        <v>0.001115155275487062</v>
+        <v>0.0004848652245063417</v>
       </c>
       <c r="T17">
-        <v>0.001115155275487062</v>
+        <v>0.0004848652245063417</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H18">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I18">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J18">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>3.581740635872</v>
+        <v>4.186009684301333</v>
       </c>
       <c r="R18">
-        <v>32.235665722848</v>
+        <v>37.674087158712</v>
       </c>
       <c r="S18">
-        <v>0.0003797460121880875</v>
+        <v>0.0002001662917180105</v>
       </c>
       <c r="T18">
-        <v>0.0003797460121880875</v>
+        <v>0.0002001662917180105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H19">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I19">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J19">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>610.4284716315146</v>
+        <v>2782.278557483656</v>
       </c>
       <c r="R19">
-        <v>5493.856244683631</v>
+        <v>25040.50701735291</v>
       </c>
       <c r="S19">
-        <v>0.06471930868095968</v>
+        <v>0.1330427837915983</v>
       </c>
       <c r="T19">
-        <v>0.06471930868095968</v>
+        <v>0.1330427837915983</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H20">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I20">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J20">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>11.20752958361867</v>
+        <v>17.53283472421267</v>
       </c>
       <c r="R20">
-        <v>100.867766252568</v>
+        <v>157.795512517914</v>
       </c>
       <c r="S20">
-        <v>0.001188253170325676</v>
+        <v>0.0008383837531986426</v>
       </c>
       <c r="T20">
-        <v>0.001188253170325676</v>
+        <v>0.0008383837531986426</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H21">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I21">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J21">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N21">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q21">
-        <v>1397.862691927893</v>
+        <v>1955.734625331408</v>
       </c>
       <c r="R21">
-        <v>12580.76422735104</v>
+        <v>17601.61162798267</v>
       </c>
       <c r="S21">
-        <v>0.1482052545987567</v>
+        <v>0.09351916910398629</v>
       </c>
       <c r="T21">
-        <v>0.1482052545987567</v>
+        <v>0.09351916910398628</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H22">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I22">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J22">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N22">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q22">
-        <v>2.835921547605</v>
+        <v>3.353346061924445</v>
       </c>
       <c r="R22">
-        <v>25.523293928445</v>
+        <v>30.18011455732</v>
       </c>
       <c r="S22">
-        <v>0.0003006722172441954</v>
+        <v>0.00016035004615013</v>
       </c>
       <c r="T22">
-        <v>0.0003006722172441954</v>
+        <v>0.00016035004615013</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H23">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I23">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J23">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.412548</v>
       </c>
       <c r="O23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q23">
-        <v>0.9657219243400001</v>
+        <v>1.384357574305333</v>
       </c>
       <c r="R23">
-        <v>8.69149731906</v>
+        <v>12.459218168748</v>
       </c>
       <c r="S23">
-        <v>0.0001023884995964925</v>
+        <v>6.619710487045576E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001023884995964925</v>
+        <v>6.619710487045576E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H24">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I24">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J24">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N24">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q24">
-        <v>164.5859424861434</v>
+        <v>920.1288781831092</v>
       </c>
       <c r="R24">
-        <v>1481.27348237529</v>
+        <v>8281.159903647982</v>
       </c>
       <c r="S24">
-        <v>0.01744985516130611</v>
+        <v>0.04399865249697968</v>
       </c>
       <c r="T24">
-        <v>0.01744985516130611</v>
+        <v>0.04399865249697968</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H25">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I25">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J25">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N25">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q25">
-        <v>3.021814848398334</v>
+        <v>5.798293453675668</v>
       </c>
       <c r="R25">
-        <v>27.196333635585</v>
+        <v>52.184641083081</v>
       </c>
       <c r="S25">
-        <v>0.0003203811372485504</v>
+        <v>0.000277262353994957</v>
       </c>
       <c r="T25">
-        <v>0.0003203811372485505</v>
+        <v>0.000277262353994957</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H26">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I26">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J26">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N26">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q26">
-        <v>376.8968180698668</v>
+        <v>646.7820779446247</v>
       </c>
       <c r="R26">
-        <v>3392.071362628801</v>
+        <v>5821.038701501621</v>
       </c>
       <c r="S26">
-        <v>0.03995963924215473</v>
+        <v>0.03092777605779786</v>
       </c>
       <c r="T26">
-        <v>0.03995963924215474</v>
+        <v>0.03092777605779785</v>
       </c>
     </row>
   </sheetData>
